--- a/PE loop sample 5/Sample C/Unnormalized_Pmax_Sample_5C_1kHz.xlsx
+++ b/PE loop sample 5/Sample C/Unnormalized_Pmax_Sample_5C_1kHz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,65 +444,100 @@
           <t>Unnormalized P_max</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Electrode Locations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A11_bipolar_10V_1kHz.txt</t>
+          <t>A2_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.359911</v>
+        <v>66.45134899999999</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A2_bipolar_10V_1kHz.txt</t>
+          <t>A3_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.45134899999999</v>
+        <v>57.427291</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A3_bipolar_10V_1kHz.txt</t>
+          <t>A6_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.427291</v>
+        <v>35.35841</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A6_bipolar_10V_1kHz.txt</t>
+          <t>A8_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.35841</v>
+        <v>46.240618</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A8</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A8_bipolar_10V_1kHz.txt</t>
+          <t>A9_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.240618</v>
+        <v>50.343041</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A9_bipolar_10V_1kHz.txt</t>
+          <t>A11_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.343041</v>
+        <v>53.359911</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -514,6 +549,11 @@
       <c r="B8" t="n">
         <v>52.920303</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B14</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -524,155 +564,235 @@
       <c r="B9" t="n">
         <v>54.676718</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B15</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C13_bipolar_10V_1kHz.txt</t>
+          <t>C1_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.742229</v>
+        <v>61.91008</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C15_bipolar_10V_1kHz.txt</t>
+          <t>C3_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.230435</v>
+        <v>56.58639</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C1_bipolar_10V_1kHz.txt</t>
+          <t>C9_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.91008</v>
+        <v>52.325421</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C3_bipolar_10V_1kHz.txt</t>
+          <t>C13_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.58639</v>
+        <v>50.742229</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C9_bipolar_10V_1kHz.txt</t>
+          <t>C15_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.325421</v>
+        <v>51.230435</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D12_bipolar_10V_1kHz.txt</t>
+          <t>D6_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.298776</v>
+        <v>46.164073</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D6_bipolar_10V_1kHz.txt</t>
+          <t>D8_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.164073</v>
+        <v>46.455713</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D8_bipolar_10V_1kHz.txt</t>
+          <t>D12_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.455713</v>
+        <v>47.298776</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E10_bipolar_10V_1kHz.txt</t>
+          <t>E1_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51.383693</v>
+        <v>63.765305</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E11_bipolar_10V_1kHz.txt</t>
+          <t>E4_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.855774</v>
+        <v>50.923756</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E15_bipolar_10V_1kHz.txt</t>
+          <t>E6_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51.625679</v>
+        <v>48.881204</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E1_bipolar_10V_1kHz.txt</t>
+          <t>E7_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.765305</v>
+        <v>51.80445</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E4_bipolar_10V_1kHz.txt</t>
+          <t>E10_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.923756</v>
+        <v>51.383693</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E6_bipolar_10V_1kHz.txt</t>
+          <t>E11_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.881204</v>
+        <v>52.855774</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E7_bipolar_10V_1kHz.txt</t>
+          <t>E15_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.80445</v>
+        <v>51.625679</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -684,235 +804,355 @@
       <c r="B25" t="n">
         <v>54.29559</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G12_bipolar_10V_1kHz.txt</t>
+          <t>G1_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>51.861615</v>
+        <v>66.400935</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>G13_bipolar_10V_1kHz.txt</t>
+          <t>G4_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.467907</v>
+        <v>53.892972</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G15_bipolar_10V_1kHz.txt</t>
+          <t>G5_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.884214</v>
+        <v>50.604106</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G1_bipolar_10V_1kHz.txt</t>
+          <t>G7_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>66.400935</v>
+        <v>53.176405</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G4_bipolar_10V_1kHz.txt</t>
+          <t>G9_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>53.892972</v>
+        <v>53.095743</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>G9</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>G5_bipolar_10V_1kHz.txt</t>
+          <t>G12_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.604106</v>
+        <v>51.861615</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>G7_bipolar_10V_1kHz.txt</t>
+          <t>G13_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>53.176405</v>
+        <v>50.467907</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>G13</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>G9_bipolar_10V_1kHz.txt</t>
+          <t>G15_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>53.095743</v>
+        <v>53.884214</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I10_bipolar_10V_1kHz.txt</t>
+          <t>I3_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49.762387</v>
+        <v>54.366169</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I11_bipolar_10V_1kHz.txt</t>
+          <t>I5_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>49.746076</v>
+        <v>56.255676</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I15_bipolar_10V_1kHz.txt</t>
+          <t>I8_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.755572</v>
+        <v>55.72129</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>I8</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I3_bipolar_10V_1kHz.txt</t>
+          <t>I10_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.366169</v>
+        <v>49.762387</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>I10</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I5_bipolar_10V_1kHz.txt</t>
+          <t>I11_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>56.255676</v>
+        <v>49.746076</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I8_bipolar_10V_1kHz.txt</t>
+          <t>I15_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.72129</v>
+        <v>55.755572</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>J13_bipolar_10V_1kHz.txt</t>
+          <t>J2_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.898121</v>
+        <v>58.050405</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>J2_bipolar_10V_1kHz.txt</t>
+          <t>J13_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>58.050405</v>
+        <v>52.898121</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>J13</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>K10_bipolar_10V_1kHz.txt</t>
+          <t>K1_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.004365</v>
+        <v>59.774554</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>K12_bipolar_10V_1kHz.txt</t>
+          <t>K3_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.027455</v>
+        <v>59.161523</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>K14_bipolar_10V_1kHz.txt</t>
+          <t>K5_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.027597</v>
+        <v>58.772329</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>K15_bipolar_10V_1kHz.txt</t>
+          <t>K10_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55.61038</v>
+        <v>52.004365</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>K10</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>K1_bipolar_10V_1kHz.txt</t>
+          <t>K12_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.774554</v>
+        <v>51.027455</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>K3_bipolar_10V_1kHz.txt</t>
+          <t>K14_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>59.161523</v>
+        <v>55.027597</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>K14</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>K5_bipolar_10V_1kHz.txt</t>
+          <t>K15_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>58.772329</v>
+        <v>55.61038</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>K15</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -924,75 +1164,115 @@
       <c r="B49" t="n">
         <v>50.891256</v>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>L6</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M10_bipolar_10V_1kHz.txt</t>
+          <t>M2_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>47.125161</v>
+        <v>60.964318</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>M11_bipolar_10V_1kHz.txt</t>
+          <t>M5_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>54.257275</v>
+        <v>59.90563</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M13_bipolar_10V_1kHz.txt</t>
+          <t>M7_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>52.710582</v>
+        <v>52.422582</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>M7</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>M15_bipolar_10V_1kHz.txt</t>
+          <t>M10_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>54.364153</v>
+        <v>47.125161</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>M2_bipolar_10V_1kHz.txt</t>
+          <t>M11_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>60.964318</v>
+        <v>54.257275</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>M11</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>M5_bipolar_10V_1kHz.txt</t>
+          <t>M13_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>59.90563</v>
+        <v>52.710582</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>M13</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>M7_bipolar_10V_1kHz.txt</t>
+          <t>M15_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>52.422582</v>
+        <v>54.364153</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1004,65 +1284,100 @@
       <c r="B57" t="n">
         <v>60.909872</v>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>O10_bipolar_10V_1kHz.txt</t>
+          <t>O2_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50.524643</v>
+        <v>59.917729</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>O14_bipolar_10V_1kHz.txt</t>
+          <t>O3_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>46.255585</v>
+        <v>61.399893</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>O3</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>O2_bipolar_10V_1kHz.txt</t>
+          <t>O5_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>59.917729</v>
+        <v>61.577349</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>O3_bipolar_10V_1kHz.txt</t>
+          <t>O8_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>61.399893</v>
+        <v>54.346004</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>O8</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>O5_bipolar_10V_1kHz.txt</t>
+          <t>O10_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>61.577349</v>
+        <v>50.524643</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>O10</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>O8_bipolar_10V_1kHz.txt</t>
+          <t>O14_bipolar_10V_1kHz.txt</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>54.346004</v>
+        <v>46.255585</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>O14</t>
+        </is>
       </c>
     </row>
   </sheetData>
